--- a/biology/Zoologie/Épagneul/Épagneul.xlsx
+++ b/biology/Zoologie/Épagneul/Épagneul.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89pagneul</t>
+          <t>Épagneul</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mot épagneul désigne un ensemble de races de chien de chasse à poil long répartis dans la nomenclature FCI, dans le groupe 7 (section 1.2 pour les chiens d'arrêt), et dans le groupe 8 (section 2 pour les chiens leveurs de gibier et section 3 pour les chiens d'eau). Certaines races de chiens nommées épagneul font aussi partie du groupe 8 « Chiens d'agrément et de compagnie ».
-En anglais, le mot équivalent « spaniel » a tendance à être réservé uniquement aux seuls chiens leveur de gibier. Ainsi la race « épagneul breton » (chien d'arrêt) dont le nom anglais était  « Brittany Spaniel » a été modifié en « Brittany » par le Kennel Club[1],[2] .
+En anglais, le mot équivalent « spaniel » a tendance à être réservé uniquement aux seuls chiens leveur de gibier. Ainsi la race « épagneul breton » (chien d'arrêt) dont le nom anglais était  « Brittany Spaniel » a été modifié en « Brittany » par le Kennel Club, .
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89pagneul</t>
+          <t>Épagneul</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Chiens d'arrêt</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Voici la liste des épagneuls faisant partie, comme chiens d'arrêt, de la section 1.2 (type épagneul) du 7e groupe de chiens selon la nomenclature FCI :
 Épagneul breton
@@ -525,7 +539,7 @@
 Langhaar
 Chien d'arrêt frison
 Chien de perdrix de Drente
-L'épagneul de Saint-Usuge ne fait pas partie de la nomenclature FCI mais il est classé dans cette même section par la Centrale canine[3].
+L'épagneul de Saint-Usuge ne fait pas partie de la nomenclature FCI mais il est classé dans cette même section par la Centrale canine.
 </t>
         </is>
       </c>
@@ -536,7 +550,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89pagneul</t>
+          <t>Épagneul</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -554,7 +568,9 @@
           <t>Chiens leveurs de gibier</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Voici la liste des épagneuls faisant partie, comme chiens leveurs de gibier, de la section 2 (« Chiens leveurs de gibier et broussailleurs ») du 8e groupe de chiens selon la nomenclature FCI :
 Chien d'oysel allemand
@@ -575,7 +591,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89pagneul</t>
+          <t>Épagneul</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -593,7 +609,9 @@
           <t>Chiens d'eau</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Voici la liste des épagneuls faisant partie, comme chiens d'eau, de la section 3 du 8e groupe de chiens selon la nomenclature FCI :
 Épagneul d'eau irlandais</t>
@@ -606,7 +624,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89pagneul</t>
+          <t>Épagneul</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -624,7 +642,9 @@
           <t>Chiens d'agrément et de compagnie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Voici la liste des épagneuls faisant partie, comme chiens d'agrément et de compagnie, du 9e groupe de chiens selon la nomenclature FCI :
 Cavalier King Charles Spaniel
@@ -642,7 +662,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>%C3%89pagneul</t>
+          <t>Épagneul</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -660,9 +680,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le terme d'épagneul a été cité au XIVe siècle par Gaston Fébus, comte de Foix, dans son Livre de chasse où un chapitre est entièrement consacré aux Chiens d’Oysel (littéralement « Chien d'oiseau ») qu'il nomme également Espainholz. Ce dernier terme pouvait provenir : soit de l'ancien verbe s’espeignir qui signifie « se coucher » ; ou plus simplement désigner l'Espagne d'où Gaston Fébus les avait amenés et où ces chiens étaient utilisés pour la chasse au filet. Cette étymologie, niée par de nombreux auteurs, est attestée par Gaston Fébus lui-même qui écrit textuellement « Autre maniere y a de chiens qu'on appelle chiens d'oysel et espainholz, pour ce que celle nature vient d'Espainhe, combien qu'il y en ait en autre pays »[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme d'épagneul a été cité au XIVe siècle par Gaston Fébus, comte de Foix, dans son Livre de chasse où un chapitre est entièrement consacré aux Chiens d’Oysel (littéralement « Chien d'oiseau ») qu'il nomme également Espainholz. Ce dernier terme pouvait provenir : soit de l'ancien verbe s’espeignir qui signifie « se coucher » ; ou plus simplement désigner l'Espagne d'où Gaston Fébus les avait amenés et où ces chiens étaient utilisés pour la chasse au filet. Cette étymologie, niée par de nombreux auteurs, est attestée par Gaston Fébus lui-même qui écrit textuellement « Autre maniere y a de chiens qu'on appelle chiens d'oysel et espainholz, pour ce que celle nature vient d'Espainhe, combien qu'il y en ait en autre pays ».
 </t>
         </is>
       </c>
@@ -673,7 +695,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>%C3%89pagneul</t>
+          <t>Épagneul</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -691,7 +713,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Toutes les races d'épagneuls mentionnées ci-dessus sont des chiens d'arrêt à poil long comparativement au braque qui est un chien d'arrêt à poil court ou ras. Les épagneuls de type chien d'arrêt chassent de façon similaire aux braques, au pointer et au setter. Ce dernier est en quelque sorte un épagneul couchant, c’est-à-dire qu'il a tendance à fléchir ses membres pour rapprocher son corps du sol lorsqu'il prend l'arrêt. Généralement, les épagneuls prennent l'arrêt debout sur leurs pattes. Il arrive qu'une patte avant se relève, mais ce n'est pas une nécessité.
 </t>
